--- a/Data/Odds/NCAAB/ncaa basketball 2021-22.xlsx
+++ b/Data/Odds/NCAAB/ncaa basketball 2021-22.xlsx
@@ -41143,10 +41143,8 @@
       <c r="J1040" t="n">
         <v>-240</v>
       </c>
-      <c r="K1040" t="inlineStr">
-        <is>
-          <t>.5+03</t>
-        </is>
+      <c r="K1040" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="1041">
@@ -58494,10 +58492,8 @@
       <c r="J1483" t="n">
         <v>-155</v>
       </c>
-      <c r="K1483" t="inlineStr">
-        <is>
-          <t>.5+03</t>
-        </is>
+      <c r="K1483" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="1484">

--- a/Data/Odds/NCAAB/ncaa basketball 2021-22.xlsx
+++ b/Data/Odds/NCAAB/ncaa basketball 2021-22.xlsx
@@ -81124,10 +81124,8 @@
       <c r="J2061" t="n">
         <v>-185</v>
       </c>
-      <c r="K2061" t="inlineStr">
-        <is>
-          <t>.5ev</t>
-        </is>
+      <c r="K2061" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="2062">
